--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -166,12 +166,12 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -187,25 +187,25 @@
     <t>competition</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>funny</t>
   </si>
   <si>
     <t>hand</t>
@@ -2075,13 +2075,13 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>0.7056277056277056</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L33">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="M33">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="N33">
         <v>0.95</v>
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2101,25 +2101,25 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.6923076923076923</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L34">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="M34">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2257,25 +2257,25 @@
         <v>57</v>
       </c>
       <c r="K40">
-        <v>0.5823170731707317</v>
+        <v>0.578125</v>
       </c>
       <c r="L40">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>137</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2283,25 +2283,25 @@
         <v>58</v>
       </c>
       <c r="K41">
-        <v>0.578125</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2309,25 +2309,25 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.5714285714285714</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2335,25 +2335,25 @@
         <v>60</v>
       </c>
       <c r="K43">
-        <v>0.5671641791044776</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L43">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2361,25 +2361,25 @@
         <v>61</v>
       </c>
       <c r="K44">
-        <v>0.5666666666666667</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2390,22 +2390,22 @@
         <v>0.5652173913043478</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2413,13 +2413,13 @@
         <v>63</v>
       </c>
       <c r="K46">
-        <v>0.5652173913043478</v>
+        <v>0.5617647058823529</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="10:17">
